--- a/CIS440 FALL2014 schedule.xlsx
+++ b/CIS440 FALL2014 schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwclark2\Dropbox\Teaching\CIS440\FALL2014\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwclark2\Dropbox\Teaching\CIS440\course-info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -189,24 +189,15 @@
     <t>updated backlog + burn charts</t>
   </si>
   <si>
-    <t>how to add a picture to a README for burn charts (+ others)</t>
-  </si>
-  <si>
     <t>software testing</t>
   </si>
   <si>
-    <t>test automation</t>
-  </si>
-  <si>
     <t>commit v0.4 to master with tests</t>
   </si>
   <si>
     <t>commit v0.5 to master with tests</t>
   </si>
   <si>
-    <t>new lecture -- writing automated tests</t>
-  </si>
-  <si>
     <t>commit v0.6 to master with CI</t>
   </si>
   <si>
@@ -426,9 +417,6 @@
     <t>iteration + empiricism, scrum workflow, overview of syllabus</t>
   </si>
   <si>
-    <t>guest speaker? perhaps from Sogeti</t>
-  </si>
-  <si>
     <t>info radiator</t>
   </si>
   <si>
@@ -460,6 +448,18 @@
   </si>
   <si>
     <t>teal = not finalized, check later</t>
+  </si>
+  <si>
+    <t>possible 29th drive guest workshop on UX design today or thurs</t>
+  </si>
+  <si>
+    <t>guest lecture: Ray Stacey of Sogeti</t>
+  </si>
+  <si>
+    <t>Ray Stacey from Sogeti's testing group</t>
+  </si>
+  <si>
+    <t>new lecture -- testing</t>
   </si>
 </sst>
 </file>
@@ -761,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -927,6 +927,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1240,7 +1243,7 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,7 +1277,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="39" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
@@ -1290,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>50</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1322,15 +1325,15 @@
         <v>40</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G4" s="58"/>
       <c r="H4" s="37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1344,14 +1347,14 @@
         <v>42</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="8" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1363,15 +1366,15 @@
         <v>41</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G6" s="58"/>
       <c r="H6" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1382,10 +1385,10 @@
         <v>41884</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="37" t="s">
@@ -1402,7 +1405,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>47</v>
@@ -1412,7 +1415,7 @@
       </c>
       <c r="G8" s="58"/>
       <c r="H8" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1426,17 +1429,17 @@
         <v>34</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G9" s="58"/>
       <c r="I9" s="43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J9" s="43">
         <v>5</v>
@@ -1451,7 +1454,7 @@
         <v>51</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="8" t="s">
@@ -1459,7 +1462,7 @@
       </c>
       <c r="G10" s="58"/>
       <c r="H10" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1473,15 +1476,15 @@
         <v>53</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="F11" s="8" t="s">
-        <v>55</v>
+      <c r="F11" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1493,14 +1496,14 @@
         <v>22</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="58"/>
       <c r="H12" s="38" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1514,17 +1517,17 @@
         <v>35</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G13" s="58"/>
       <c r="I13" s="43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J13" s="43">
         <v>5</v>
@@ -1536,23 +1539,23 @@
         <v>41907</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="G14" s="60"/>
       <c r="H14" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J14" s="42">
         <v>5</v>
@@ -1565,21 +1568,21 @@
       <c r="B15" s="20">
         <v>41912</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>57</v>
+      <c r="C15" s="66" t="s">
+        <v>143</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="9" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="G15" s="58" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1611,14 +1614,14 @@
         <v>54</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H17" s="38"/>
       <c r="I17" s="43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J17" s="43">
         <v>5</v>
@@ -1630,18 +1633,18 @@
         <v>41921</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G18" s="59"/>
       <c r="H18" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1664,20 +1667,20 @@
         <v>41928</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G20" s="59"/>
       <c r="H20" s="37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1691,20 +1694,20 @@
         <v>37</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>54</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G21" s="59"/>
       <c r="H21" s="38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I21" s="43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J21" s="43">
         <v>5</v>
@@ -1716,20 +1719,20 @@
         <v>41935</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G22" s="64"/>
       <c r="I22" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J22" s="42">
         <v>12</v>
@@ -1743,14 +1746,14 @@
         <v>41940</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G23" s="59"/>
     </row>
@@ -1764,7 +1767,7 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G24" s="59"/>
     </row>
@@ -1779,17 +1782,17 @@
         <v>38</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>54</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G25" s="59"/>
       <c r="I25" s="43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J25" s="43">
         <v>5</v>
@@ -1801,14 +1804,14 @@
         <v>41949</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G26" s="59"/>
     </row>
@@ -1836,7 +1839,7 @@
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G28" s="59"/>
     </row>
@@ -1851,17 +1854,17 @@
         <v>39</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G29" s="59"/>
       <c r="I29" s="43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J29" s="43">
         <v>5</v>
@@ -1873,18 +1876,18 @@
         <v>41963</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G30" s="59"/>
       <c r="H30" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1895,15 +1898,15 @@
         <v>41968</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="51" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G31" s="64"/>
       <c r="I31" s="42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J31" s="42">
         <v>8</v>
@@ -1921,7 +1924,7 @@
       <c r="E32" s="27"/>
       <c r="G32" s="59"/>
       <c r="I32" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J32" s="44">
         <v>8</v>
@@ -1939,11 +1942,11 @@
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="40" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G33" s="65"/>
       <c r="I33" s="43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J33" s="43">
         <v>8</v>
@@ -1955,20 +1958,20 @@
         <v>41977</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G34" s="61"/>
       <c r="I34" s="43" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J34" s="43">
         <v>10</v>
@@ -1988,7 +1991,7 @@
       <c r="E35" s="14"/>
       <c r="G35" s="58"/>
       <c r="I35" s="42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J35" s="42">
         <v>10</v>
@@ -2008,7 +2011,7 @@
       </c>
       <c r="G36" s="58"/>
       <c r="I36" s="45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J36" s="45">
         <v>10</v>
@@ -2019,11 +2022,11 @@
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="48" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E37" s="49">
         <f ca="1">TODAY()</f>
-        <v>41858</v>
+        <v>41869</v>
       </c>
       <c r="G37" s="49"/>
       <c r="J37" s="8">
